--- a/exports/1.xlsx
+++ b/exports/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,514 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>derection_names</t>
+          <t>направление</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>city_name</t>
+          <t>город</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>faculty</t>
+          <t>факультет</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>university_name</t>
+          <t>№ направления</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ege</t>
+          <t>университет</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>обязательные ЕГЭ</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>points_for_budget</t>
+          <t>стоимость</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>budget_funded</t>
+          <t>баллы для бюджета</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>points_for_contract</t>
+          <t>бюджетные места</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>contract_funded</t>
+          <t>баллы для контракта</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>контрактные места</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>created_at</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ЕГЭ по выбору</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>faculty_macro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2707</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Цифровые технологии проектирование и конструирования ракетных систем</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Авиация и космонавтика</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24.03.01 </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Балтийский государственный технический университет «ВОЕНМЕХ» имени Д. Ф. Устинова</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>математика, русский</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>от 307000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:36:44</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> физика/информатика</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Инженерия и технологии</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2708</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Управление технологиями искусственного интеллекта</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Информатика и информационные системы</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38.03.05 </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Балтийский государственный технический университет «ВОЕНМЕХ» имени Д. Ф. Устинова</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>математика, русский</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>от 238500</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:36:44</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> обществознание/информатика</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>IT и компьютерные науки</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2709</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Компьютерный инжиниринг машиностроительных производств</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Машиностроение</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15.03.01 </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Балтийский государственный технический университет «ВОЕНМЕХ» имени Д. Ф. Устинова</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>математика, русский</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>от 95000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:36:44</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> физика/информатика</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Инженерия и технологии</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2710</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Эксплуатация вооружения и военной техники (по областям и видам)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Военная техника</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17.05.02 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Балтийский государственный технический университет «ВОЕНМЕХ» имени Д. Ф. Устинова</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>математика, русский</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>от 307000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:36:44</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> физика/информатика</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Инженерия и технологии</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Информационно-измерительная техника и технологии</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Авиация и космонавтика</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24.03.01 </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Балтийский государственный технический университет «ВОЕНМЕХ» имени Д. Ф. Устинова</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>математика, русский</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>от 307000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:36:44</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> физика/информатика</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Инженерия и технологии</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2712</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Проектирование, производство и эксплуатация стартовых систем</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Авиация и космонавтика</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24.03.01 </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Балтийский государственный технический университет «ВОЕНМЕХ» имени Д. Ф. Устинова</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>математика, русский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>от 307000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2025-12-26 20:36:44</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> физика/информатика</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Инженерия и технологии</t>
         </is>
       </c>
     </row>

--- a/exports/1.xlsx
+++ b/exports/1.xlsx
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2707</v>
+        <v>80</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-26 20:36:44</t>
+          <t>2025-12-27 17:01:50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2708</v>
+        <v>81</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-26 20:36:44</t>
+          <t>2025-12-27 17:01:50</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -654,7 +654,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2709</v>
+        <v>82</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-26 20:36:44</t>
+          <t>2025-12-27 17:01:50</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -729,7 +729,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2710</v>
+        <v>83</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-26 20:36:44</t>
+          <t>2025-12-27 17:01:50</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -804,7 +804,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2711</v>
+        <v>84</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-26 20:36:44</t>
+          <t>2025-12-27 17:01:50</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -879,7 +879,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2712</v>
+        <v>85</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-12-26 20:36:44</t>
+          <t>2025-12-27 17:01:50</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
